--- a/sputnik/personal/cel/cel308.xlsx
+++ b/sputnik/personal/cel/cel308.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -216,6 +216,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,7 +527,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,10 +651,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="19">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel308.xlsx
+++ b/sputnik/personal/cel/cel308.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+      <selection activeCell="A12" sqref="A12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -664,16 +670,28 @@
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1000</v>
+      </c>
       <c r="D12" s="18"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="A13" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13">
+        <v>170</v>
+      </c>
       <c r="D13" s="18"/>
       <c r="E13" s="17"/>
     </row>

--- a/sputnik/personal/cel/cel308.xlsx
+++ b/sputnik/personal/cel/cel308.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2020</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2020</t>
   </si>
 </sst>
 </file>
@@ -89,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,8 +233,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -530,10 +544,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C13"/>
+      <selection activeCell="A12" sqref="A12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -657,11 +671,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>43952</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="13">
         <v>1000</v>
@@ -673,41 +687,59 @@
       <c r="A12" s="19">
         <v>44317</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="21">
         <v>1000</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>44317</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="21">
         <v>170</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="18">
+        <v>44370</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
+        <v>1000</v>
+      </c>
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel308.xlsx
+++ b/sputnik/personal/cel/cel308.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2020</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -547,7 +553,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D13"/>
+      <selection activeCell="A15" sqref="A15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,17 +729,29 @@
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="18">
+        <v>44466</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11">
+        <v>1000</v>
+      </c>
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="18">
+        <v>44466</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>170</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
